--- a/data_craw/quarter/income_statement_quarter/ctg.xlsx
+++ b/data_craw/quarter/income_statement_quarter/ctg.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517873000000</v>
+        <v>919165000000</v>
       </c>
       <c r="C4" t="n">
-        <v>994259000000</v>
+        <v>877094000000</v>
       </c>
       <c r="D4" t="n">
-        <v>428781000000</v>
+        <v>652094000000</v>
       </c>
       <c r="E4" t="n">
-        <v>475473000000</v>
+        <v>1493133000000</v>
       </c>
       <c r="F4" t="n">
-        <v>919165000000</v>
+        <v>690077000000</v>
       </c>
       <c r="G4" t="n">
-        <v>877094000000</v>
+        <v>1689758000000</v>
       </c>
       <c r="H4" t="n">
-        <v>652094000000</v>
+        <v>2147279000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1493133000000</v>
+        <v>1440988000000</v>
       </c>
       <c r="J4" t="n">
-        <v>690077000000</v>
+        <v>2596210000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1689758000000</v>
+        <v>1635234000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2147279000000</v>
+        <v>1205592000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1440988000000</v>
+        <v>2076206000000</v>
       </c>
       <c r="N4" t="n">
-        <v>2596210000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1635234000000</v>
-      </c>
+        <v>1735446000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>1205592000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2076206000000</v>
-      </c>
+        <v>1279714000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +624,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260856000000</v>
+        <v>237211000000</v>
       </c>
       <c r="C5" t="n">
-        <v>96130000000</v>
+        <v>153704000000</v>
       </c>
       <c r="D5" t="n">
-        <v>153401000000</v>
+        <v>213554000000</v>
       </c>
       <c r="E5" t="n">
-        <v>280380000000</v>
+        <v>358859000000</v>
       </c>
       <c r="F5" t="n">
-        <v>237211000000</v>
+        <v>325323000000</v>
       </c>
       <c r="G5" t="n">
-        <v>153704000000</v>
+        <v>220467000000</v>
       </c>
       <c r="H5" t="n">
-        <v>213554000000</v>
+        <v>269750000000</v>
       </c>
       <c r="I5" t="n">
-        <v>358859000000</v>
+        <v>329685000000</v>
       </c>
       <c r="J5" t="n">
-        <v>325323000000</v>
+        <v>357757000000</v>
       </c>
       <c r="K5" t="n">
-        <v>220467000000</v>
+        <v>1273694000000</v>
       </c>
       <c r="L5" t="n">
-        <v>269750000000</v>
+        <v>185634000000</v>
       </c>
       <c r="M5" t="n">
-        <v>329685000000</v>
+        <v>298059000000</v>
       </c>
       <c r="N5" t="n">
-        <v>357757000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1273694000000</v>
-      </c>
+        <v>325678000000</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>185634000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>298059000000</v>
-      </c>
+        <v>501593000000</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -696,7 +688,9 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>1207758000000</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -706,53 +700,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2517146000000</v>
+        <v>2341649000000</v>
       </c>
       <c r="C7" t="n">
-        <v>2653766000000</v>
+        <v>5384390000000</v>
       </c>
       <c r="D7" t="n">
-        <v>2404717000000</v>
+        <v>6471151000000</v>
       </c>
       <c r="E7" t="n">
-        <v>3610243000000</v>
+        <v>2238561000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2341649000000</v>
+        <v>2465637000000</v>
       </c>
       <c r="G7" t="n">
-        <v>5384390000000</v>
+        <v>2985705000000</v>
       </c>
       <c r="H7" t="n">
-        <v>6471151000000</v>
+        <v>4697912000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2238561000000</v>
+        <v>4680851000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2465637000000</v>
+        <v>3319664000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2985705000000</v>
+        <v>4261784000000</v>
       </c>
       <c r="L7" t="n">
-        <v>4697912000000</v>
+        <v>4831201000000</v>
       </c>
       <c r="M7" t="n">
-        <v>4680851000000</v>
+        <v>5263655000000</v>
       </c>
       <c r="N7" t="n">
-        <v>3319664000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4261784000000</v>
-      </c>
+        <v>3895322000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4831201000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5263655000000</v>
-      </c>
+        <v>5002524000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,53 +751,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6003000000</v>
+        <v>4997000000</v>
       </c>
       <c r="C8" t="n">
-        <v>-1429000000</v>
+        <v>28051000000</v>
       </c>
       <c r="D8" t="n">
-        <v>-9749000000</v>
+        <v>9618000000</v>
       </c>
       <c r="E8" t="n">
-        <v>38593000000</v>
+        <v>32135000000</v>
       </c>
       <c r="F8" t="n">
-        <v>4997000000</v>
+        <v>5865000000</v>
       </c>
       <c r="G8" t="n">
-        <v>28051000000</v>
+        <v>64889000000</v>
       </c>
       <c r="H8" t="n">
-        <v>9618000000</v>
+        <v>34005000000</v>
       </c>
       <c r="I8" t="n">
-        <v>32135000000</v>
+        <v>35438000000</v>
       </c>
       <c r="J8" t="n">
-        <v>5865000000</v>
+        <v>-18664000000</v>
       </c>
       <c r="K8" t="n">
-        <v>64889000000</v>
+        <v>75399000000</v>
       </c>
       <c r="L8" t="n">
-        <v>34005000000</v>
+        <v>24824000000</v>
       </c>
       <c r="M8" t="n">
-        <v>35438000000</v>
+        <v>60349000000</v>
       </c>
       <c r="N8" t="n">
-        <v>-18664000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>75399000000</v>
-      </c>
+        <v>32247000000</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>24824000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>60349000000</v>
-      </c>
+        <v>43714000000</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -852,7 +838,9 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>19066889000000</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -898,7 +886,9 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>4958810000000</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
